--- a/biology/Histoire de la zoologie et de la botanique/William_Benjamin_Carpenter/William_Benjamin_Carpenter.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/William_Benjamin_Carpenter/William_Benjamin_Carpenter.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William Benjamin Carpenter est un naturaliste britannique, né le 29 octobre 1813 à Exeter et mort le 19 novembre 1885 à Londres.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait des études de médecine à l’université de Londres de 1833 à 1835 puis à celle d’Édimbourg de 1835 à 1839 où il obtient son titre de docteur. Il devient professeur de physiologie à la Royal Institution de Londres en 1844 puis enseigne la médecine légale de 1856 à 1879.
-Aux côtés de Charles Wyville Thomson, Carpenter conduit les missions d’exploration des H.M.S. Lightning et H.M.S. Porcupine en eaux profondes dans le nord de l’Écosse de 1868 à 1870. Afin de compléter ces premiers travaux, Carpenter suggère en mars 1870 d'étendre ces observations au sud de l'Europe et à la Méditerranée[1].
-L'analyse des observations physiques suites à ces premières croisières, permettent à Carpenter d'esquisser une théorie sur le déplacement des masses d'eau océaniques qui diffère en plusieurs points de la théorie pionnière de Matthew Fontaine Maury[2].
-Compte tenu du contexte de l'époque avec l'essor de la télégraphie sous-marine[3], Carpenter fut l'artisan principal qui convainquit à la fois l’Amirauté et le gouvernement britannique d’engager une expédition océanographique de grande ampleur afin d’étendre les observations à l’échelle mondiale. Ces efforts déboucheront sur la mission d'exploration du H.M.S. Challenger[4].
+Aux côtés de Charles Wyville Thomson, Carpenter conduit les missions d’exploration des H.M.S. Lightning et H.M.S. Porcupine en eaux profondes dans le nord de l’Écosse de 1868 à 1870. Afin de compléter ces premiers travaux, Carpenter suggère en mars 1870 d'étendre ces observations au sud de l'Europe et à la Méditerranée.
+L'analyse des observations physiques suites à ces premières croisières, permettent à Carpenter d'esquisser une théorie sur le déplacement des masses d'eau océaniques qui diffère en plusieurs points de la théorie pionnière de Matthew Fontaine Maury.
+Compte tenu du contexte de l'époque avec l'essor de la télégraphie sous-marine, Carpenter fut l'artisan principal qui convainquit à la fois l’Amirauté et le gouvernement britannique d’engager une expédition océanographique de grande ampleur afin d’étendre les observations à l’échelle mondiale. Ces efforts déboucheront sur la mission d'exploration du H.M.S. Challenger.
 Il obtient un doctorat en droit honoris causa décerné par l’université d’Édimbourg en 1871.
 Carpenter est membre de diverses sociétés savantes dont la Royal Society à partir de 1844 et reçoit de nombreux honneurs dont la médaille Lyell en 1883.
 Il est l’auteur de nombreux travaux en zoologie et en botanique.
@@ -548,7 +562,9 @@
           <t>Publications (sélection)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1839 : Principles of general and comparative physiology (J. Churchill, Londres, réédité à de nombreuses reprises).
 1843 : Popular cyclopædia of natural science (trois volumes, Londres).
